--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1338976.882807405</v>
+        <v>1334839.725557254</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>398.1432366506096</v>
       </c>
       <c r="H2" t="n">
-        <v>246.3360745058916</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2.003880812606632</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>196.4017961483597</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>398.1006894651797</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>124.1538981597112</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,7 +1071,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>177.7328602271897</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>62.69963164234858</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1186,7 +1186,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>117.6501184144665</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,16 +1296,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>85.36610313819087</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>44.65112812757524</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.70843787977355</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>11.79076481679217</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289878</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>135.4684761590174</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>66.25628701154712</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>108.2950343703266</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>176.1811323375803</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>107.4021082756238</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>126.4643665640123</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,16 +3246,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>26.07046444232026</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>105.6507867899569</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>166.3208822291524</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3951,16 +3951,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>177.1006680594876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>143.4157347120547</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1126.761759316041</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="C2" t="n">
-        <v>1126.761759316041</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="D2" t="n">
-        <v>1126.761759316041</v>
+        <v>912.5190745852287</v>
       </c>
       <c r="E2" t="n">
-        <v>1126.761759316041</v>
+        <v>526.7308219869844</v>
       </c>
       <c r="F2" t="n">
-        <v>715.775854526433</v>
+        <v>519.785321237781</v>
       </c>
       <c r="G2" t="n">
-        <v>300.0711042507219</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847234</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1500.22751757712</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1126.761759316041</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y2" t="n">
-        <v>1126.761759316041</v>
+        <v>1270.784773191979</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.376567084329</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>604.045735764185</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C4" t="n">
-        <v>604.045735764185</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D4" t="n">
-        <v>453.9290963518492</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
-        <v>306.0160027694561</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>159.1260552715458</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>159.1260552715458</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1114.255484944676</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W4" t="n">
-        <v>824.8383149077151</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X4" t="n">
-        <v>824.8383149077151</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y4" t="n">
-        <v>604.045735764185</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1248.370234799863</v>
+        <v>1234.787393074839</v>
       </c>
       <c r="C5" t="n">
-        <v>1248.370234799863</v>
+        <v>1234.787393074839</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>1234.787393074839</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>1234.787393074839</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>823.801488285231</v>
       </c>
       <c r="G5" t="n">
         <v>421.6795797345444</v>
@@ -4564,7 +4564,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
@@ -4573,10 +4573,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4597,22 +4597,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.012626270159</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>1974.604648331057</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>1621.835993060943</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X5" t="n">
-        <v>1248.370234799863</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="Y5" t="n">
-        <v>1248.370234799863</v>
+        <v>1234.787393074839</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>662.7751904765217</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>662.7751904765217</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765217</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941286</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1354.334571946454</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1065.216234450291</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1065.216234450291</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1065.216234450291</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1065.216234450291</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>844.4236553067615</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603.6036480119269</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C8" t="n">
-        <v>540.2706867570294</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D8" t="n">
-        <v>540.2706867570294</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2706867570294</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2318.801617477669</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926625</v>
+        <v>2318.801617477669</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583054</v>
+        <v>1987.738730134099</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.80857831294</v>
+        <v>1634.970074863985</v>
       </c>
       <c r="X8" t="n">
-        <v>1380.34282005186</v>
+        <v>1634.970074863985</v>
       </c>
       <c r="Y8" t="n">
-        <v>990.2034880760486</v>
+        <v>1634.970074863985</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
         <v>2239.046898434118</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>220.18296949591</v>
+        <v>751.3310369968228</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2467865680031</v>
+        <v>582.3948540689159</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>432.2782146565802</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>284.3651210741871</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>137.4751735762767</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1394.715222610545</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1140.030734404658</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>850.6135643676972</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X10" t="n">
-        <v>622.6240134696799</v>
+        <v>1153.772080970593</v>
       </c>
       <c r="Y10" t="n">
-        <v>401.8314343261497</v>
+        <v>932.9795018270626</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5059,34 +5059,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998295</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000582</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,19 +5290,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913855</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718124</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.528408326419</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,10 +5512,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5524,13 +5524,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5746,37 +5746,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>378.6527890600114</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>231.762841562101</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.3099000622261</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>747.3737171343192</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D25" t="n">
-        <v>597.2570777219835</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E25" t="n">
-        <v>449.3439841395904</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>302.45403664168</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970974</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934013</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>1318.750944035996</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>1097.958364892466</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6220,34 +6220,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>235.5284942057738</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>369.4997403892776</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>202.3036411041575</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2252.17559542457</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2032.574130447511</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1743.498903791709</v>
       </c>
       <c r="V34" t="n">
-        <v>1755.431557602304</v>
+        <v>1488.814415585822</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1199.397245548862</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>971.4076946508441</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,28 +6949,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081859</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4517.069482196493</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4517.069482196493</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>4517.069482196493</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V37" t="n">
-        <v>4262.384993990607</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W37" t="n">
-        <v>3972.967823953646</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X37" t="n">
-        <v>3744.978273055629</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y37" t="n">
-        <v>3524.185693912098</v>
+        <v>816.5764010855556</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1520.445529061503</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2495.978408795858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429802</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.987318831765</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,19 +7724,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951537</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N45" t="n">
         <v>1344.266747951537</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2794.50775589162</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>2794.50775589162</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>2794.50775589162</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8060,28 +8060,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>224.3355197601779</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>114.3555089013349</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>54.95314511566545</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-1.108058604532503e-12</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7255247667956</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>84.77391660562006</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891647</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>213.918890572245</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.957421563281</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>31.77834493961041</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>99.26785128072173</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>32.8926045706001</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>54.56191943763226</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>260.4525338942707</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>75.37549921168767</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>119.8635921600917</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>109.4223302771034</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>36.4162454698826</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>934927.9732586428</v>
+        <v>934927.9732586427</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>934927.9732586427</v>
+        <v>934927.9732586426</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>934927.9732586428</v>
+        <v>934927.9732586426</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>934927.9732586428</v>
+        <v>934927.9732586427</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>934927.9732586426</v>
+        <v>934927.9732586427</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>934927.9732586428</v>
+        <v>934927.9732586426</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>934927.9732586428</v>
+        <v>934927.9732586426</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>934927.9732586428</v>
+        <v>934927.9732586427</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>934927.9732586428</v>
+        <v>934927.9732586426</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>934927.9732586428</v>
+        <v>934927.9732586427</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>934927.9732586427</v>
+        <v>934927.9732586426</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185703</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="L2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="N2" t="n">
         <v>484287.9598140035</v>
-      </c>
-      <c r="M2" t="n">
-        <v>484287.9598140036</v>
-      </c>
-      <c r="N2" t="n">
-        <v>484287.9598140038</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245464</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719632</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-848178.3576439384</v>
+        <v>-848178.3576439387</v>
       </c>
       <c r="C6" t="n">
-        <v>266573.4259319806</v>
+        <v>266573.4259319811</v>
       </c>
       <c r="D6" t="n">
-        <v>266573.4259319814</v>
+        <v>266573.4259319812</v>
       </c>
       <c r="E6" t="n">
-        <v>-131827.3800961695</v>
+        <v>-132174.7593505258</v>
       </c>
       <c r="F6" t="n">
-        <v>375658.0615283769</v>
+        <v>375310.6822740198</v>
       </c>
       <c r="G6" t="n">
-        <v>375658.0615283772</v>
+        <v>375310.6822740197</v>
       </c>
       <c r="H6" t="n">
-        <v>375658.0615283769</v>
+        <v>375310.6822740199</v>
       </c>
       <c r="I6" t="n">
-        <v>375658.0615283769</v>
+        <v>375310.6822740198</v>
       </c>
       <c r="J6" t="n">
-        <v>208052.8837183943</v>
+        <v>207705.5044640373</v>
       </c>
       <c r="K6" t="n">
-        <v>375658.0615283768</v>
+        <v>375310.6822740198</v>
       </c>
       <c r="L6" t="n">
-        <v>375658.0615283767</v>
+        <v>375310.6822740199</v>
       </c>
       <c r="M6" t="n">
-        <v>243050.7677994501</v>
+        <v>242703.3885450933</v>
       </c>
       <c r="N6" t="n">
-        <v>375658.061528377</v>
+        <v>375310.6822740198</v>
       </c>
       <c r="O6" t="n">
-        <v>375658.0615283766</v>
+        <v>375310.6822740199</v>
       </c>
       <c r="P6" t="n">
-        <v>375658.061528377</v>
+        <v>375310.6822740199</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="C4" t="n">
-        <v>640.5848321000387</v>
-      </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>433.9106082241344</v>
+      </c>
+      <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>433.9106082241351</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.40446612234439</v>
       </c>
       <c r="H2" t="n">
-        <v>54.68247805651382</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>145.2476283425222</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>55.73584717546831</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>13.44701330777428</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>203.5983603104237</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>43.01583577002222</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>302.5732601286589</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>89.00806656576724</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,16 +28016,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>80.94049690661332</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28061,19 +28061,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>241.5760259936254</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
-        <v>437.8531046913755</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>355.4083096598232</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201444</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>416.4300581532626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>197.6412480909884</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34149,7 +34149,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
@@ -34207,7 +34207,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,7 +34222,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>359.7096985496632</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
@@ -34234,7 +34234,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34444,22 +34444,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>614.7544723218302</v>
       </c>
       <c r="M45" t="n">
-        <v>416.4300581532619</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>591.2668520422184</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750462</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
@@ -35035,10 +35035,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>230.8362312321895</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35269,7 +35269,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>304.6326742391977</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667036</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
-        <v>303.8786972770453</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>213.2742757378049</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402702</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.65947400496688</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37797,7 +37797,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,7 +37870,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>228.3679864663299</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>476.2000925419561</v>
       </c>
       <c r="M45" t="n">
-        <v>274.2960242312436</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1334839.725557254</v>
+        <v>1336600.255860039</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>25.96124341869889</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>398.1432366506096</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>196.4017961483597</v>
+        <v>228.4619057992968</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>29.82575910884084</v>
       </c>
       <c r="G5" t="n">
-        <v>398.1006894651797</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,7 +1071,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>94.83276152020498</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>171.1971464172153</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1186,7 +1186,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>117.6501184144665</v>
+        <v>62.6996316423488</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>124.0961330064684</v>
       </c>
       <c r="G10" t="n">
-        <v>85.36610313819087</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>35.88641949135547</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>29.249233057517</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>136.5667167289878</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>10.63412424768211</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>135.4684761590174</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>38.61213096654735</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>176.1811323375803</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>113.5413580759688</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>126.4643665640123</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>166.3208822291524</v>
+        <v>64.91921363453612</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>16.77337404802748</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>28.75188085812055</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>217.4198923921882</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1270.784773191979</v>
+        <v>531.4162778577429</v>
       </c>
       <c r="C2" t="n">
-        <v>1270.784773191979</v>
+        <v>162.4537609173312</v>
       </c>
       <c r="D2" t="n">
-        <v>912.5190745852287</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E2" t="n">
-        <v>526.7308219869844</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F2" t="n">
-        <v>519.785321237781</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4330,16 +4330,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>1270.784773191979</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y2" t="n">
-        <v>1270.784773191979</v>
+        <v>918.0161179218646</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.2127024906389</v>
+        <v>517.189556406156</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2765195627319</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
         <v>51.2467865680031</v>
@@ -4488,25 +4488,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="V4" t="n">
-        <v>1438.060467399387</v>
+        <v>1209.047770416887</v>
       </c>
       <c r="W4" t="n">
-        <v>1148.643297362426</v>
+        <v>919.6306003799259</v>
       </c>
       <c r="X4" t="n">
-        <v>920.6537464644088</v>
+        <v>919.6306003799259</v>
       </c>
       <c r="Y4" t="n">
-        <v>699.8611673208786</v>
+        <v>698.8380212363958</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1234.787393074839</v>
+        <v>867.5113594131251</v>
       </c>
       <c r="C5" t="n">
-        <v>1234.787393074839</v>
+        <v>867.5113594131251</v>
       </c>
       <c r="D5" t="n">
-        <v>1234.787393074839</v>
+        <v>867.5113594131251</v>
       </c>
       <c r="E5" t="n">
-        <v>1234.787393074839</v>
+        <v>867.5113594131251</v>
       </c>
       <c r="F5" t="n">
-        <v>823.801488285231</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
         <v>421.6795797345444</v>
@@ -4564,16 +4564,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.92672505065</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X5" t="n">
-        <v>1624.92672505065</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y5" t="n">
-        <v>1234.787393074839</v>
+        <v>1254.111199477247</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605189</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919907</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.935112151211</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748156</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924318</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P6" t="n">
-        <v>2309.473409756615</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>315.0239194619518</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>147.0374547702304</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1463.519709552058</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X7" t="n">
-        <v>1235.53015865404</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>643.5623317901019</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1248.370234799863</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362818</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2318.801617477669</v>
+        <v>2374.307159671727</v>
       </c>
       <c r="U8" t="n">
-        <v>2318.801617477669</v>
+        <v>2374.307159671727</v>
       </c>
       <c r="V8" t="n">
-        <v>1987.738730134099</v>
+        <v>2043.244272328157</v>
       </c>
       <c r="W8" t="n">
-        <v>1634.970074863985</v>
+        <v>1690.475617058043</v>
       </c>
       <c r="X8" t="n">
-        <v>1634.970074863985</v>
+        <v>1317.009858796963</v>
       </c>
       <c r="Y8" t="n">
-        <v>1634.970074863985</v>
+        <v>926.8705268211511</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P9" t="n">
         <v>2239.046898434118</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>751.3310369968228</v>
+        <v>643.5623317901019</v>
       </c>
       <c r="C10" t="n">
-        <v>582.3948540689159</v>
+        <v>474.626148862195</v>
       </c>
       <c r="D10" t="n">
-        <v>432.2782146565802</v>
+        <v>324.5095094498593</v>
       </c>
       <c r="E10" t="n">
-        <v>284.3651210741871</v>
+        <v>176.5964158674661</v>
       </c>
       <c r="F10" t="n">
-        <v>137.4751735762767</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -5001,13 +5001,13 @@
         <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>1381.76163186861</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X10" t="n">
-        <v>1153.772080970593</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y10" t="n">
-        <v>932.9795018270626</v>
+        <v>643.5623317901019</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348531</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>438.9735020680206</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>271.7774027829005</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>130.0655716250986</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048574</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925216</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>296.7882229101285</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5497,40 +5497,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5746,37 +5746,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703114</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C22" t="n">
-        <v>526.5658826424045</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>526.5658826424045</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>378.6527890600114</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>231.762841562101</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459586</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>631.7012443408905</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408905</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854707</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817746</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761984</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
         <v>555.8158034133954</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2332.274843099484</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>2043.199616443682</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="32">
@@ -6682,34 +6682,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6718,10 +6718,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>789.7592298206043</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>620.8230468926974</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>470.7064074803617</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2252.17559542457</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2032.574130447511</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1743.498903791709</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1488.814415585822</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1199.397245548862</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>971.4076946508441</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>971.4076946508441</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6931,46 +6931,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>691.1951506745237</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.07903472198</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>634.9279362553159</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C37" t="n">
-        <v>634.9279362553159</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1809.460189369951</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V37" t="n">
-        <v>1554.775701164064</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W37" t="n">
-        <v>1265.358531127103</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X37" t="n">
-        <v>1037.368980229086</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y37" t="n">
-        <v>816.5764010855556</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2430.020281511546</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2247.16544716645</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2247.16544716645</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,10 +7423,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400717</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>991.7138464380538</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515139</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>294.8344935184731</v>
       </c>
       <c r="Q6" t="n">
-        <v>114.3555089013349</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-1.108058604532503e-12</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>45.37941682721006</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>84.77391660562006</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23703,7 +23703,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>28.957421563281</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>206.7713260796062</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>31.77834493961041</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>103.8640922513194</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>54.56191943763226</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>119.8635921600917</v>
+        <v>221.265260754708</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>49.60187266209421</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>119.8635921600918</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>8.289762996848964</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>934927.9732586426</v>
+        <v>934927.9732586428</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>934927.9732586427</v>
+        <v>934927.9732586426</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>934927.9732586426</v>
+        <v>934927.9732586427</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>934927.9732586427</v>
+        <v>934927.9732586428</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>934927.9732586426</v>
+        <v>934927.9732586427</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>934927.9732586426</v>
+        <v>934927.9732586428</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>934927.9732586426</v>
+        <v>934927.9732586427</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>934927.9732586426</v>
+        <v>934927.9732586428</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="C2" t="n">
+        <v>492625.0619185701</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.0619185702</v>
       </c>
-      <c r="D2" t="n">
-        <v>492625.06191857</v>
-      </c>
       <c r="E2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="F2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="F2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="G2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="I2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="I2" t="n">
-        <v>484287.9598140035</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
@@ -26349,10 +26349,10 @@
         <v>484287.9598140037</v>
       </c>
       <c r="N2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="O2" t="n">
         <v>484287.9598140035</v>
-      </c>
-      <c r="O2" t="n">
-        <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140036</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
@@ -26432,16 +26432,16 @@
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719632</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-848178.3576439387</v>
+        <v>-848178.3576439384</v>
       </c>
       <c r="C6" t="n">
-        <v>266573.4259319811</v>
+        <v>266573.4259319809</v>
       </c>
       <c r="D6" t="n">
         <v>266573.4259319812</v>
       </c>
       <c r="E6" t="n">
-        <v>-132174.7593505258</v>
+        <v>-131862.118021605</v>
       </c>
       <c r="F6" t="n">
-        <v>375310.6822740198</v>
+        <v>375623.3236029411</v>
       </c>
       <c r="G6" t="n">
-        <v>375310.6822740197</v>
+        <v>375623.3236029411</v>
       </c>
       <c r="H6" t="n">
-        <v>375310.6822740199</v>
+        <v>375623.3236029412</v>
       </c>
       <c r="I6" t="n">
-        <v>375310.6822740198</v>
+        <v>375623.3236029411</v>
       </c>
       <c r="J6" t="n">
-        <v>207705.5044640373</v>
+        <v>208018.1457929586</v>
       </c>
       <c r="K6" t="n">
-        <v>375310.6822740198</v>
+        <v>375623.3236029412</v>
       </c>
       <c r="L6" t="n">
-        <v>375310.6822740199</v>
+        <v>375623.3236029411</v>
       </c>
       <c r="M6" t="n">
-        <v>242703.3885450933</v>
+        <v>243016.0298740146</v>
       </c>
       <c r="N6" t="n">
-        <v>375310.6822740198</v>
+        <v>375623.3236029411</v>
       </c>
       <c r="O6" t="n">
-        <v>375310.6822740199</v>
+        <v>375623.323602941</v>
       </c>
       <c r="P6" t="n">
-        <v>375310.6822740199</v>
+        <v>375623.3236029411</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>328.7217982019841</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>13.40446612234439</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27545,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27587,7 +27587,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27596,13 +27596,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>55.73584717546831</v>
+        <v>23.6757375245312</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>377.0502866328706</v>
       </c>
       <c r="G5" t="n">
-        <v>13.44701330777428</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>52.41874763492389</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>115.3258519193757</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>89.00806656576724</v>
+        <v>143.958553337885</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>21.32491501646285</v>
       </c>
       <c r="G10" t="n">
-        <v>80.94049690661332</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,22 +32086,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L21" t="n">
-        <v>246.9596973201444</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>301.6445156724557</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>614.7544723218302</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750462</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>544.5140226420053</v>
       </c>
       <c r="Q6" t="n">
-        <v>230.8362312321895</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35269,7 +35269,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>443.0068759113673</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667036</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,22 +35734,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L21" t="n">
-        <v>108.4053175402702</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>159.0482712280113</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>476.2000925419561</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
